--- a/code/t_virus_report.xlsx
+++ b/code/t_virus_report.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yadapruksachatkun/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yadapruksachatkun/Desktop/Fall2016/Bayes/ThinkBayes2/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
+    <workbookView xWindow="2540" yWindow="1780" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="5">
   <si>
     <t>Parents</t>
-  </si>
-  <si>
-    <t>Grandparents</t>
   </si>
   <si>
     <t>Y</t>
@@ -42,6 +39,9 @@
   </si>
   <si>
     <t>T virus Antibody</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -357,408 +357,294 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection sqref="A1:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
       <c r="B9" s="1">
         <v>0.5</v>
       </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>0.5</v>
       </c>
-      <c r="C10" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1">
         <v>0.5</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>0</v>
       </c>
-      <c r="C15" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
       </c>
-      <c r="C17" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
       </c>
-      <c r="C19" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
       </c>
-      <c r="C20" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
       </c>
-      <c r="C21" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
         <v>0.5</v>
       </c>
-      <c r="C23" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
       </c>
-      <c r="C24" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
       </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
       </c>
-      <c r="C26" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>0</v>
       </c>
-      <c r="C27" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
       </c>
-      <c r="C28" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
       </c>
-      <c r="C29" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
       </c>
-      <c r="C30" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B31" s="1">
         <v>0.5</v>
       </c>
-      <c r="C31" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B32" s="1">
         <v>0.5</v>
       </c>
-      <c r="C32" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="1">
         <v>0.5</v>
       </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" s="1">
         <v>0.5</v>
       </c>
-      <c r="C34" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" s="1">
         <v>0.5</v>
       </c>
-      <c r="C35" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" s="1">
         <v>0.5</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0.75</v>
       </c>
     </row>
   </sheetData>
